--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_05_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_05_end.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Somehow, the cycle of day and night returns to normal, and the Ink Spirits no longer fear the sunlight. They take to massacring the villagers while Mr.Nothing shows unexpectedly proficient martial arts in trying to protect the innocent, but still, he fails.
+    <t xml:space="preserve">Somehow, the cycle of day and night returns to normal, and the Ink Spirits no longer fear the sunlight. They take to massacring the villagers while Mr. Nothing shows unexpectedly proficient martial arts in trying to protect the innocent, but still, he fails.
 </t>
   </si>
   <si>
